--- a/results/Distorted_greedy/dataset_04/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/Distorted_greedy/dataset_04/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,64 +579,64 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="Q2">
-        <v>1.444563269243866</v>
+        <v>1.753293188400259</v>
       </c>
       <c r="R2">
-        <v>44.88591826890334</v>
+        <v>160.0754610147863</v>
       </c>
       <c r="S2">
-        <v>4.24</v>
+        <v>5.773584905660377</v>
       </c>
       <c r="T2">
-        <v>6.4</v>
+        <v>6.883720930232558</v>
       </c>
       <c r="U2">
-        <v>1.856297990365626</v>
+        <v>1.929159338630498</v>
       </c>
       <c r="V2">
-        <v>53.15553014451561</v>
+        <v>170.0461484388886</v>
       </c>
       <c r="W2">
-        <v>998</v>
+        <v>826</v>
       </c>
       <c r="X2">
         <v>1079</v>
       </c>
       <c r="Y2">
-        <v>998</v>
+        <v>826</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -659,64 +659,64 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q3">
-        <v>2.261763098473791</v>
+        <v>1.50851199384414</v>
       </c>
       <c r="R3">
-        <v>63.38236901526209</v>
+        <v>100.574400307793</v>
       </c>
       <c r="S3">
-        <v>9.6</v>
+        <v>4.52</v>
       </c>
       <c r="T3">
-        <v>9.6</v>
+        <v>4.52</v>
       </c>
       <c r="U3">
-        <v>2.261763098473791</v>
+        <v>1.50851199384414</v>
       </c>
       <c r="V3">
-        <v>63.38236901526209</v>
+        <v>100.574400307793</v>
       </c>
       <c r="W3">
-        <v>796</v>
+        <v>706</v>
       </c>
       <c r="X3">
         <v>882</v>
       </c>
       <c r="Y3">
-        <v>796</v>
+        <v>706</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -739,64 +739,64 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="Q4">
-        <v>2.238046571856474</v>
+        <v>1.333184535805942</v>
       </c>
       <c r="R4">
-        <v>49.09562742514821</v>
+        <v>84.67529692325535</v>
       </c>
       <c r="S4">
-        <v>9.375</v>
+        <v>3.793103448275862</v>
       </c>
       <c r="T4">
-        <v>9.375</v>
+        <v>3.793103448275862</v>
       </c>
       <c r="U4">
-        <v>2.238046571856474</v>
+        <v>1.333184535805942</v>
       </c>
       <c r="V4">
-        <v>49.09562742514821</v>
+        <v>84.67529692325535</v>
       </c>
       <c r="W4">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="X4">
         <v>669</v>
       </c>
       <c r="Y4">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -819,64 +819,64 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I5">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="Q5">
-        <v>2.140066163496271</v>
+        <v>1.726801572953283</v>
       </c>
       <c r="R5">
-        <v>53.59933836503729</v>
+        <v>153.479516633476</v>
       </c>
       <c r="S5">
-        <v>8.5</v>
+        <v>5.622641509433962</v>
       </c>
       <c r="T5">
-        <v>8.5</v>
+        <v>5.622641509433962</v>
       </c>
       <c r="U5">
-        <v>2.140066163496271</v>
+        <v>1.726801572953283</v>
       </c>
       <c r="V5">
-        <v>53.59933836503729</v>
+        <v>153.479516633476</v>
       </c>
       <c r="W5">
-        <v>1296</v>
+        <v>1126</v>
       </c>
       <c r="X5">
         <v>1371</v>
       </c>
       <c r="Y5">
-        <v>1296</v>
+        <v>1126</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -899,64 +899,64 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>1.845826690498331</v>
+        <v>2.108617030813767</v>
       </c>
       <c r="R6">
-        <v>52.31259964252504</v>
+        <v>194.8725528290768</v>
       </c>
       <c r="S6">
-        <v>6.333333333333333</v>
+        <v>8.236842105263158</v>
       </c>
       <c r="T6">
-        <v>6.333333333333333</v>
+        <v>8.236842105263158</v>
       </c>
       <c r="U6">
-        <v>1.845826690498331</v>
+        <v>2.108617030813767</v>
       </c>
       <c r="V6">
-        <v>52.31259964252504</v>
+        <v>194.8725528290768</v>
       </c>
       <c r="W6">
-        <v>1043</v>
+        <v>848</v>
       </c>
       <c r="X6">
         <v>1123</v>
       </c>
       <c r="Y6">
-        <v>1043</v>
+        <v>848</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -979,64 +979,64 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I7">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K7">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="Q7">
-        <v>2.456735772821304</v>
+        <v>1.506438672961954</v>
       </c>
       <c r="R7">
-        <v>49.25958536307218</v>
+        <v>94.19738237078816</v>
       </c>
       <c r="S7">
-        <v>11.66666666666667</v>
+        <v>4.51063829787234</v>
       </c>
       <c r="T7">
-        <v>11.66666666666667</v>
+        <v>4.51063829787234</v>
       </c>
       <c r="U7">
-        <v>2.456735772821304</v>
+        <v>1.506438672961954</v>
       </c>
       <c r="V7">
-        <v>49.25958536307218</v>
+        <v>94.19738237078816</v>
       </c>
       <c r="W7">
-        <v>681</v>
+        <v>580</v>
       </c>
       <c r="X7">
         <v>745</v>
       </c>
       <c r="Y7">
-        <v>681</v>
+        <v>580</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1059,64 +1059,64 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I8">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K8">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="P8">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="Q8">
-        <v>0.9664405155596266</v>
+        <v>1.194287498591472</v>
       </c>
       <c r="R8">
-        <v>23.17458195541307</v>
+        <v>91.87413761690779</v>
       </c>
       <c r="S8">
-        <v>2.628571428571429</v>
+        <v>3.301204819277109</v>
       </c>
       <c r="T8">
-        <v>2.628571428571429</v>
+        <v>3.301204819277109</v>
       </c>
       <c r="U8">
-        <v>0.9664405155596266</v>
+        <v>1.194287498591472</v>
       </c>
       <c r="V8">
-        <v>23.17458195541307</v>
+        <v>91.87413761690779</v>
       </c>
       <c r="W8">
-        <v>1102</v>
+        <v>968</v>
       </c>
       <c r="X8">
         <v>1159</v>
       </c>
       <c r="Y8">
-        <v>1102</v>
+        <v>968</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1139,67 +1139,67 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I9">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.9621212121212122</v>
       </c>
       <c r="O9">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>1.969440646465507</v>
+        <v>1.291983681648649</v>
       </c>
       <c r="R9">
-        <v>50.36671224241391</v>
+        <v>67.40081591756753</v>
       </c>
       <c r="S9">
-        <v>7.166666666666667</v>
+        <v>3.64</v>
       </c>
       <c r="T9">
-        <v>7.166666666666667</v>
+        <v>3.309090909090909</v>
       </c>
       <c r="U9">
-        <v>1.969440646465507</v>
+        <v>1.196673501844324</v>
       </c>
       <c r="V9">
-        <v>50.36671224241391</v>
+        <v>61.18295739856215</v>
       </c>
       <c r="W9">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="X9">
         <v>710</v>
       </c>
       <c r="Y9">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>1.008650519031142</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,64 +1219,64 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I10">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K10">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="P10">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="Q10">
-        <v>1.366091653802371</v>
+        <v>1.624036711855253</v>
       </c>
       <c r="R10">
-        <v>38.84770865494072</v>
+        <v>166.5655035938428</v>
       </c>
       <c r="S10">
-        <v>3.92</v>
+        <v>5.073529411764706</v>
       </c>
       <c r="T10">
-        <v>3.92</v>
+        <v>5.073529411764706</v>
       </c>
       <c r="U10">
-        <v>1.366091653802371</v>
+        <v>1.624036711855253</v>
       </c>
       <c r="V10">
-        <v>38.84770865494072</v>
+        <v>166.5655035938428</v>
       </c>
       <c r="W10">
-        <v>1345</v>
+        <v>1141</v>
       </c>
       <c r="X10">
         <v>1418</v>
       </c>
       <c r="Y10">
-        <v>1345</v>
+        <v>1141</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1299,64 +1299,64 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I11">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="P11">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="Q11">
-        <v>1.785070481077258</v>
+        <v>1.899616865084468</v>
       </c>
       <c r="R11">
-        <v>79.37323797306854</v>
+        <v>227.0229880949319</v>
       </c>
       <c r="S11">
-        <v>5.96</v>
+        <v>6.683333333333334</v>
       </c>
       <c r="T11">
-        <v>5.96</v>
+        <v>6.683333333333334</v>
       </c>
       <c r="U11">
-        <v>1.785070481077258</v>
+        <v>1.899616865084468</v>
       </c>
       <c r="V11">
-        <v>79.37323797306854</v>
+        <v>227.0229880949319</v>
       </c>
       <c r="W11">
-        <v>1136</v>
+        <v>919</v>
       </c>
       <c r="X11">
         <v>1260</v>
       </c>
       <c r="Y11">
-        <v>1136</v>
+        <v>919</v>
       </c>
       <c r="Z11">
         <v>1</v>
